--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
     <sheet name="10" sheetId="4" r:id="rId2"/>
-    <sheet name="Exam 1" sheetId="2" r:id="rId3"/>
-    <sheet name="16" sheetId="1" r:id="rId4"/>
+    <sheet name="49" sheetId="5" r:id="rId3"/>
+    <sheet name="56" sheetId="6" r:id="rId4"/>
+    <sheet name="57" sheetId="7" r:id="rId5"/>
+    <sheet name="Exam 1" sheetId="2" r:id="rId6"/>
+    <sheet name="16" sheetId="1" r:id="rId7"/>
+    <sheet name="Exam 2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -82,7 +86,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -93,6 +97,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,6 +782,1290 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20106</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="1190625"/>
+          <a:ext cx="7563906" cy="3210373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9696449" y="628650"/>
+          <a:ext cx="5267325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -23860"/>
+            <a:gd name="adj2" fmla="val 127794"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 1: since there is no row before this row, the revenue is retained.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11868149" y="1238250"/>
+          <a:ext cx="4095751" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57133"/>
+            <a:gd name="adj2" fmla="val 25382"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 2: the previous revenue is 1000</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_prev = current revenue - previous revenue </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>= 1500 - 1000 = 500</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11810999" y="2276475"/>
+          <a:ext cx="4095751" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54808"/>
+            <a:gd name="adj2" fmla="val -47618"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 3: the previous revenue is 1500</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_prev = current revenue - previous revenue </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>= 500 - 1500 = -1000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11810999" y="3333750"/>
+          <a:ext cx="4095751" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54808"/>
+            <a:gd name="adj2" fmla="val -47618"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 7: the previous revenue is NULL, </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_prev = current revenue - previous revenue </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>= 15000 - NULL = NULL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513686</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="8810625"/>
+          <a:ext cx="5314286" cy="3219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7858125" y="8248650"/>
+          <a:ext cx="5267325" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -24402"/>
+            <a:gd name="adj2" fmla="val 124223"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 1: since there is no row before this row, the revenue is retained.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9915525" y="8877300"/>
+          <a:ext cx="4095751" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63412"/>
+            <a:gd name="adj2" fmla="val 24382"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 2: the previous revenue is 1000</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_prev = current revenue - previous revenue </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>= 1500 - 1000 = 500</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9639300" y="9934575"/>
+          <a:ext cx="4095751" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56901"/>
+            <a:gd name="adj2" fmla="val -53618"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 3: the previous revenue is 1500</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_prev = current revenue - previous revenue </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>= 500 - 1500 = -1000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangular Callout 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9696450" y="11049000"/>
+          <a:ext cx="4095751" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58994"/>
+            <a:gd name="adj2" fmla="val -54499"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 7: the previous revenue is NULL,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> so i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>t goes further back until it finds a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>non-NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> revenue. and the revenue in row 5 is 10000.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_prev = current revenue - previous revenue </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>= 15000 - 10000 = 5000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>134166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="952500"/>
+          <a:ext cx="6201640" cy="5849166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8715376" y="3429000"/>
+          <a:ext cx="4552950" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47250"/>
+            <a:gd name="adj2" fmla="val 92882"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>The first row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> is retained cuz there is no row before this one</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="4800599"/>
+          <a:ext cx="2924175" cy="1028701"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59341"/>
+            <a:gd name="adj2" fmla="val -39382"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> 3: (100 + 120 + 130) / 3 = 116.7</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>Row 4: (120 + 130 + 140) / 3 = 130</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 5: (130 + 140 + 150) / 3 = 140</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9077326" y="4114799"/>
+          <a:ext cx="2286000" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62348"/>
+            <a:gd name="adj2" fmla="val -6049"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> 2: (100 + 120) / 2 = 110</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>677135</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1190625"/>
+          <a:ext cx="6163535" cy="5772956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372601" y="3448050"/>
+          <a:ext cx="4552950" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47040"/>
+            <a:gd name="adj2" fmla="val 114621"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>The first row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> is retained cuz there is no row before this one</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9820275" y="4829174"/>
+          <a:ext cx="5619750" cy="1219201"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55612"/>
+            <a:gd name="adj2" fmla="val -40163"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 3 (Jan 3): Dates between Jan 1–3 → (100 + 120 + 130) / 3 = 116.7</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 4 (Jan 5): Dates between Jan 3–5 → (130 + 140) / 2 = 135</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 5 (Jan 6): Dates between Jan 4–6 → (140 + 150) / 2 = 145</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9972676" y="4162424"/>
+          <a:ext cx="2286000" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69015"/>
+            <a:gd name="adj2" fmla="val 18025"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> 2: (100 + 120) / 2 = 110</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1112,10 +2403,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1128,6 +2470,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2">
+        <f>ROUND($D$5*E1, 0)</f>
         <v>11</v>
       </c>
       <c r="E1" s="3">
@@ -1150,18 +2493,19 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>14</v>
+        <f t="shared" ref="D2:D4" si="0">ROUND($D$5*E2, 0)</f>
+        <v>15</v>
       </c>
       <c r="E2" s="3">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F4" si="0">COUNTIF($A$1:$A$65, C2)</f>
-        <v>12</v>
+        <f t="shared" ref="F2:F4" si="1">COUNTIF($A$1:$A$65, C2)</f>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G4" si="1">COUNTIF($A$1:$A$65, C2)/COUNTA($A$1:$A$65)</f>
-        <v>0.18461538461538463</v>
+        <f t="shared" ref="G2:G4" si="2">COUNTIF($A$1:$A$65, C2)/COUNTA($A$1:$A$65)</f>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1172,18 +2516,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="2">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E3" s="3">
         <v>0.32</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" si="1"/>
-        <v>0.12307692307692308</v>
+        <f t="shared" si="2"/>
+        <v>0.32307692307692309</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1194,29 +2539,49 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="E4" s="3">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>0.27692307692307694</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="D5" s="4">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="D6" s="4">
+        <f>SUM(D1:D4)</f>
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(E1:E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F1:F4)</f>
+        <v>65</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUM(G1:G4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -1410,107 +2775,107 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +2885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1534,4 +2899,440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <f>ROUND($D$5*E1, 0)</f>
+        <v>11</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F1">
+        <f>COUNTIF($A$1:$A$65, C1)</f>
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <f>COUNTIF($A$1:$A$65, C1)/COUNTA($A$1:$A$65)</f>
+        <v>3.0769230769230771E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D4" si="0">ROUND($D$5*E2, 0)</f>
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F4" si="1">COUNTIF($A$1:$A$65, C2)</f>
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="2">COUNTIF($A$1:$A$65, C2)/COUNTA($A$1:$A$65)</f>
+        <v>6.1538461538461542E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0769230769230771E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <f>SUM(D1:D4)</f>
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(E1:E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F1:F4)</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUM(G1:G4)</f>
+        <v>0.13846153846153847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="56" sheetId="6" r:id="rId4"/>
     <sheet name="57" sheetId="7" r:id="rId5"/>
     <sheet name="Exam 1" sheetId="2" r:id="rId6"/>
-    <sheet name="16" sheetId="1" r:id="rId7"/>
-    <sheet name="Exam 2" sheetId="8" r:id="rId8"/>
+    <sheet name="13" sheetId="9" r:id="rId7"/>
+    <sheet name="16" sheetId="1" r:id="rId8"/>
+    <sheet name="Exam 2" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2066,6 +2067,268 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>639030</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="1428750"/>
+          <a:ext cx="6125430" cy="5858693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="3857625"/>
+          <a:ext cx="4552950" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47250"/>
+            <a:gd name="adj2" fmla="val 92882"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>The first row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> is retained cuz there is no row before this one</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410824" y="5600699"/>
+          <a:ext cx="3314701" cy="1028701"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59054"/>
+            <a:gd name="adj2" fmla="val -39382"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>Row 4: (100+ 120 + 130 + 140) / 4 = 122.5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 5: (120 + 130 + 140 + 150) / 4 = 135</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 6: (130 + 140 + 150 + 160) / 4 = 145</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363199" y="4581524"/>
+          <a:ext cx="2952751" cy="866776"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57509"/>
+            <a:gd name="adj2" fmla="val -8247"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> 2: (100 + 120) / 2 = 110</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>Row 3: (100 + 120 + 130) / 3 = 116.7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2422,7 +2685,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2889,6 +3152,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
@@ -2901,15 +3180,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="57" sheetId="7" r:id="rId5"/>
     <sheet name="Exam 1" sheetId="2" r:id="rId6"/>
     <sheet name="13" sheetId="9" r:id="rId7"/>
-    <sheet name="16" sheetId="1" r:id="rId8"/>
+    <sheet name="18" sheetId="1" r:id="rId8"/>
     <sheet name="Exam 2" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -3152,7 +3152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -3168,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6CD20-3E6A-42CE-B822-7710531E44B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -22,17 +23,28 @@
     <sheet name="18" sheetId="1" r:id="rId8"/>
     <sheet name="Exam 2" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,7 +99,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -97,10 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -137,7 +146,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -181,7 +196,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -266,7 +287,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -351,7 +378,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -428,7 +461,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -488,7 +527,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -558,7 +603,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -632,7 +683,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -670,7 +727,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -732,7 +795,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -799,7 +868,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -843,7 +918,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -905,7 +986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5"/>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -989,7 +1076,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6"/>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1073,7 +1166,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1157,7 +1256,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1195,7 +1300,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9"/>
+        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1257,7 +1368,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1341,7 +1458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11"/>
+        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1425,7 +1548,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangular Callout 12"/>
+        <xdr:cNvPr id="13" name="Rounded Rectangular Callout 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1566,7 +1695,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1610,7 +1745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1676,7 +1817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1755,7 +1902,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1826,7 +1979,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1870,7 +2029,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1936,7 +2101,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2012,7 +2183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2083,7 +2260,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2127,7 +2310,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2193,7 +2382,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2268,7 +2463,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4"/>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2345,7 +2546,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2633,7 +2840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="E7" workbookViewId="0">
@@ -2649,7 +2856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2665,7 +2872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -2681,7 +2888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2697,7 +2904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2713,7 +2920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2821,7 +3028,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>65</v>
       </c>
     </row>
@@ -2829,7 +3036,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <f>SUM(D1:D4)</f>
         <v>65</v>
       </c>
@@ -3149,7 +3356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3165,10 +3372,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -3181,14 +3388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3209,11 +3416,11 @@
       </c>
       <c r="F1">
         <f>COUNTIF($A$1:$A$65, C1)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1">
         <f>COUNTIF($A$1:$A$65, C1)/COUNTA($A$1:$A$65)</f>
-        <v>3.0769230769230771E-2</v>
+        <v>0.29230769230769232</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3232,11 +3439,11 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F4" si="1">COUNTIF($A$1:$A$65, C2)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G4" si="2">COUNTIF($A$1:$A$65, C2)/COUNTA($A$1:$A$65)</f>
-        <v>6.1538461538461542E-2</v>
+        <v>0.29230769230769232</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -3255,11 +3462,11 @@
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="2"/>
-        <v>3.0769230769230771E-2</v>
+        <v>0.18461538461538463</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -3278,26 +3485,26 @@
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="2"/>
-        <v>1.5384615384615385E-2</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <f>SUM(D1:D4)</f>
         <v>65</v>
       </c>
@@ -3307,11 +3514,11 @@
       </c>
       <c r="F6">
         <f>SUM(F1:F4)</f>
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1">
         <f>SUM(G1:G4)</f>
-        <v>0.13846153846153847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -3331,282 +3538,282 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6CD20-3E6A-42CE-B822-7710531E44B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174FE53A-7E89-4EA5-9C97-656E6A555F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="13" sheetId="9" r:id="rId7"/>
     <sheet name="18" sheetId="1" r:id="rId8"/>
     <sheet name="Exam 2" sheetId="8" r:id="rId9"/>
+    <sheet name="Exam 3" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2855,6 +2856,441 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9C0166-57A3-489F-9B0D-273649FF3FEB}">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <f>ROUND($D$5*E1, 0)</f>
+        <v>11</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F1">
+        <f>COUNTIF($A$1:$A$65, C1)</f>
+        <v>19</v>
+      </c>
+      <c r="G1" s="1">
+        <f>COUNTIF($A$1:$A$65, C1)/COUNTA($A$1:$A$65)</f>
+        <v>0.29230769230769232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D4" si="0">ROUND($D$5*E2, 0)</f>
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F4" si="1">COUNTIF($A$1:$A$65, C2)</f>
+        <v>22</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="2">COUNTIF($A$1:$A$65, C2)/COUNTA($A$1:$A$65)</f>
+        <v>0.33846153846153848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24615384615384617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12307692307692308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D1:D4)</f>
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(E1:E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F1:F4)</f>
+        <v>65</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUM(G1:G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
@@ -3391,11 +3827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174FE53A-7E89-4EA5-9C97-656E6A555F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7879155-7880-4094-9437-5F9A21FEF521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="18" sheetId="1" r:id="rId8"/>
     <sheet name="Exam 2" sheetId="8" r:id="rId9"/>
     <sheet name="Exam 3" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="12" r:id="rId11"/>
+    <sheet name="21" sheetId="13" r:id="rId12"/>
+    <sheet name="Exam 4" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2574,6 +2577,1460 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3696CDC-6098-4C5D-AA35-BF00B3C12E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="4076700"/>
+          <a:ext cx="5267325" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54240"/>
+            <a:gd name="adj2" fmla="val -32990"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 4: since there is no row after this row, the revenue is retained.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>505470</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534ADE2F-70E2-4A76-98AA-289276F117FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="2857500"/>
+          <a:ext cx="4620270" cy="3210373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5049B9E1-4F54-4C9E-BDA1-4B2CCD5D77F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="733425"/>
+          <a:ext cx="4095751" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21552"/>
+            <a:gd name="adj2" fmla="val 62063"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 1: the next revenue is 1500</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_next = next revenue - current revenue</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>= 1500 - 1000 = 500</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 2: the next revenue is 500</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_next = next revenue - current revenue</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                        = 500 - 1500 = -1000</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7CECE6-D9D1-4537-845D-C9A658561432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="4800600"/>
+          <a:ext cx="4095751" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -53646"/>
+            <a:gd name="adj2" fmla="val -51641"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 5: the next revenue is NULL,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> so i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>t continues until it finds a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>non-NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> revenue. and the revenue in row 7 is 15000.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_next = next revenue - current revenue</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>= 15000 - 10000 = 5000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B132A0-4C0E-4E93-A916-94C3F6959054}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10429875" y="2686049"/>
+          <a:ext cx="4391025" cy="1104901"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56467"/>
+            <a:gd name="adj2" fmla="val 48106"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 3: the next revenue is NULL, but emp_id 0 has</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> no futher revenue. Therefore, the default value 0 is used</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>diff_to_next = next revenue - current revenue</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>                       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>= 0 - 500 = -500</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>562723</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7F88B58-3C6B-1786-47B3-737972F213AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="1905000"/>
+          <a:ext cx="5363323" cy="5325218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>553197</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>10258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFABE3F0-89DC-136E-D213-5A1D99FF5391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="9763125"/>
+          <a:ext cx="5353797" cy="5249008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B591B14F-E44D-4FD1-8A12-59D108EDB0D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="4171950"/>
+          <a:ext cx="4552950" cy="438149"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47040"/>
+            <a:gd name="adj2" fmla="val 114621"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>The first row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> is retained cuz there is no row before this one</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407B4765-BFC8-4308-BAF3-782B36415DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410825" y="4972049"/>
+          <a:ext cx="1666875" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -69015"/>
+            <a:gd name="adj2" fmla="val 18025"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> 2: 10 + 10 = 20</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F2A9CA-7CEB-4FAA-BCA3-5E30343380A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439400" y="5619749"/>
+          <a:ext cx="2114550" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66729"/>
+            <a:gd name="adj2" fmla="val -44938"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> 2: 10 + 10 + 20 = 40</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96B6D80-3CD6-4F56-B98F-A44A0771AFE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10458449" y="12001501"/>
+          <a:ext cx="3914775" cy="1171574"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58800"/>
+            <a:gd name="adj2" fmla="val 23675"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 1 + 2: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Both rows with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>sales = 10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> are grouped together.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Their values are added: 10 + 10 = 20.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>That total (20) is then shown in both rows.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B288006-6903-4753-A1B1-63D8B8B2A0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10410824" y="13382625"/>
+          <a:ext cx="4448176" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54907"/>
+            <a:gd name="adj2" fmla="val -42179"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 3: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>All rows with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>sales = 20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> are grouped together.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Their values are added with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>sales = 10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>: 10 + 10 + 20 = 40.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>That total (40) is then shown in all rows with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>sales = 20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>334187</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>181731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3417660-2049-1380-8CD5-E68DC0F4EDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="16430625"/>
+          <a:ext cx="5820587" cy="5420481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D16BFCA-A90A-43AA-8F9B-417002AFA745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906126" y="18497550"/>
+          <a:ext cx="3562350" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58800"/>
+            <a:gd name="adj2" fmla="val 23675"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 1 + 2 + 3: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3 rows with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>sales_quarter = 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> are grouped together.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Their values are added: 10 + 10 + 20 = 40.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>That total (40) is then shown in 3 rows.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D86D40B-30CA-48B0-B1C7-7771E7157FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10925176" y="20297775"/>
+          <a:ext cx="3562350" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57998"/>
+            <a:gd name="adj2" fmla="val 4032"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 4 -&gt; 8: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>5 rows with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>sales_quarter = 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> are grouped together.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Their values are added: 10 + 20 + 30 = 60.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>That total (60) is then shown in 5 rows.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>334187</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>76975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47B88F3-00E4-7C6C-4CB5-512527FF3168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="23574375"/>
+          <a:ext cx="5820587" cy="5553850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66A34BF-CFF2-44BF-93CD-96480162A106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10963275" y="24726899"/>
+          <a:ext cx="4019550" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58800"/>
+            <a:gd name="adj2" fmla="val 23675"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Row 1 + 2 + 3: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Range 10:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Both rows with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>sales = 10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> are grouped together.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Their values are added: 10 + 10 = 20.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Range 20:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>All rows with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>sales = 20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> are grouped together.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>Their values are added: = 20.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>All range are added together:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> 20 + 20 = 40</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>That total (40) is then shown in 3 rows.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2860,7 +4317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9C0166-57A3-489F-9B0D-273649FF3FEB}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -3286,6 +4743,51 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9127800-E192-4DF0-A790-A4D419F8C230}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3895321-B9DD-4603-8E7C-11C4EDBD8A46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="S120" sqref="S120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6DD4CD-1759-4D2D-BB2A-F0C61BF9FB6D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3311,7 +4813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7879155-7880-4094-9437-5F9A21FEF521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1560589-3DE4-41D4-B9E5-93B2CD712FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20355" yWindow="0" windowWidth="8550" windowHeight="15585" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -4318,10 +4318,10 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G58" sqref="G58"/>
+      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4768,7 +4768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3895321-B9DD-4603-8E7C-11C4EDBD8A46}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="S120" sqref="S120"/>
     </sheetView>
   </sheetViews>
@@ -4782,12 +4782,434 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6DD4CD-1759-4D2D-BB2A-F0C61BF9FB6D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <f>ROUND($D$5*E1, 0)</f>
+        <v>11</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F1">
+        <f>COUNTIF($A$1:$A$65, C1)</f>
+        <v>18</v>
+      </c>
+      <c r="G1" s="1">
+        <f>COUNTIF($A$1:$A$65, C1)/COUNTA($A$1:$A$65)</f>
+        <v>0.27692307692307694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D4" si="0">ROUND($D$5*E2, 0)</f>
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F4" si="1">COUNTIF($A$1:$A$65, C2)</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="2">COUNTIF($A$1:$A$65, C2)/COUNTA($A$1:$A$65)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12307692307692308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12307692307692308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D1:D4)</f>
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(E1:E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F1:F4)</f>
+        <v>44</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUM(G1:G4)</f>
+        <v>0.67692307692307696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1560589-3DE4-41D4-B9E5-93B2CD712FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20355" yWindow="0" windowWidth="8550" windowHeight="15585" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20355" yWindow="0" windowWidth="8550" windowHeight="15585" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -26,8 +25,10 @@
     <sheet name="11" sheetId="12" r:id="rId11"/>
     <sheet name="21" sheetId="13" r:id="rId12"/>
     <sheet name="Exam 4" sheetId="11" r:id="rId13"/>
+    <sheet name="5-11" sheetId="15" r:id="rId14"/>
+    <sheet name="Exam 5" sheetId="14" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,6 +671,622 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>591207</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2857500"/>
+          <a:ext cx="4706007" cy="6258798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772400" y="3219450"/>
+          <a:ext cx="6486525" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -47083"/>
+            <a:gd name="adj2" fmla="val 77498"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>In the first row, we grouped the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> stage in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>SF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> region and calculated the total profit as: </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>SUM(RETAIL_PRICE × QUANTITY) = (2 × 1) + (5 × 4) = 22</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239126" y="4667250"/>
+          <a:ext cx="5181600" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -54542"/>
+            <a:gd name="adj2" fmla="val 51665"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>In the second row, we grouped the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> stage in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>SJ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> city and calculated the total revenue as: </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>SUM(RETAIL_PRICE × QUANTITY) = (2 x 2) + (5 x 8) = 44</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangular Callout 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334376" y="5972175"/>
+          <a:ext cx="4943474" cy="981074"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57519"/>
+            <a:gd name="adj2" fmla="val -31328"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>In the third row, we just grouped the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> stage and calculated the total revenue as: </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>SUM(RETAIL_PRICE × QUANTITY) = 22 + 44 = 66</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangular Callout 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11058525" y="7115175"/>
+          <a:ext cx="2971799" cy="457199"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -58921"/>
+            <a:gd name="adj2" fmla="val -19168"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>We</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t> do the same thing with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
+            <a:t>FL and PR</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangular Callout 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11039476" y="8782050"/>
+          <a:ext cx="4333874" cy="981074"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56724"/>
+            <a:gd name="adj2" fmla="val -42007"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>In the last row, we did not group any data; instead, we simply calculated the total revenue as:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>SUM(RETAIL_PRICE × QUANTITY) = 626</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="6267450"/>
+          <a:ext cx="3990975" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286751" y="7705725"/>
+          <a:ext cx="4295774" cy="981074"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56170"/>
+            <a:gd name="adj2" fmla="val -42008"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>In the ninth row, we just grouped the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>Miami</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t> stage and calculated the total revenue as: </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>SUM(RETAIL_PRICE × QUANTITY) = 16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
+            <a:t> x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t> 5 = 80</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2789,6 +3406,10 @@
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -3022,6 +3643,10 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t> no futher revenue. Therefore, the default value 0 is used</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -3941,6 +4566,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -3977,6 +4606,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -4020,6 +4653,10 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t> 20 + 20 = 40</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4298,10 +4935,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -4314,7 +4951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9C0166-57A3-489F-9B0D-273649FF3FEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4749,10 +5386,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9127800-E192-4DF0-A790-A4D419F8C230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -4765,10 +5402,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3895321-B9DD-4603-8E7C-11C4EDBD8A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="S120" sqref="S120"/>
     </sheetView>
   </sheetViews>
@@ -4781,14 +5418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6DD4CD-1759-4D2D-BB2A-F0C61BF9FB6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5215,8 +5852,460 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <f>ROUND($D$5*E1, 0)</f>
+        <v>11</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F1">
+        <f>COUNTIF($A$1:$A$65, C1)</f>
+        <v>7</v>
+      </c>
+      <c r="G1" s="1">
+        <f>COUNTIF($A$1:$A$65, C1)/COUNTA($A$1:$A$65)</f>
+        <v>0.1076923076923077</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D4" si="0">ROUND($D$5*E2, 0)</f>
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F4" si="1">COUNTIF($A$1:$A$65, C2)</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="2">COUNTIF($A$1:$A$65, C2)/COUNTA($A$1:$A$65)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1076923076923077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1538461538461542E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D1:D4)</f>
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(E1:E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F1:F4)</f>
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUM(G1:G4)</f>
+        <v>0.47692307692307695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5232,7 +6321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5248,7 +6337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5264,7 +6353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5280,7 +6369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5716,7 +6805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -5732,7 +6821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5748,7 +6837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC0B74-3240-493B-B019-61A493383D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20355" yWindow="0" windowWidth="8550" windowHeight="15585" activeTab="14"/>
+    <workbookView xWindow="4440" yWindow="1785" windowWidth="23415" windowHeight="12990" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -27,8 +28,9 @@
     <sheet name="Exam 4" sheetId="11" r:id="rId13"/>
     <sheet name="5-11" sheetId="15" r:id="rId14"/>
     <sheet name="Exam 5" sheetId="14" r:id="rId15"/>
+    <sheet name="Exam 6" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,9 +50,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Access History | Snowflake Documentation</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +71,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -99,12 +118,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -117,8 +139,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,7 +714,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1148,7 +1180,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1282,6 +1320,55 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>464781</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84BE53E-C8FE-E4FC-E8E0-79E9045E17A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="9048750"/>
+          <a:ext cx="15552381" cy="3838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3406,10 +3493,6 @@
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -3643,10 +3726,6 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t> no futher revenue. Therefore, the default value 0 is used</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4566,10 +4645,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -4606,10 +4681,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -4653,10 +4724,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t> 20 + 20 = 40</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4935,7 +5002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -4951,7 +5018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5402,7 +5469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
@@ -5418,7 +5485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5853,7 +5920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="C10" workbookViewId="0">
@@ -5869,14 +5936,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5897,11 +5964,11 @@
       </c>
       <c r="F1">
         <f>COUNTIF($A$1:$A$65, C1)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1">
         <f>COUNTIF($A$1:$A$65, C1)/COUNTA($A$1:$A$65)</f>
-        <v>0.1076923076923077</v>
+        <v>0.16923076923076924</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -5920,11 +5987,11 @@
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F4" si="1">COUNTIF($A$1:$A$65, C2)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G4" si="2">COUNTIF($A$1:$A$65, C2)/COUNTA($A$1:$A$65)</f>
-        <v>0.2</v>
+        <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -5995,11 +6062,11 @@
       </c>
       <c r="F6">
         <f>SUM(F1:F4)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1">
         <f>SUM(G1:G4)</f>
-        <v>0.47692307692307695</v>
+        <v>0.56923076923076921</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -6129,85 +6196,88 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>0</v>
       </c>
@@ -6299,13 +6369,32 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H36" r:id="rId1" location="write" display="https://docs.snowflake.com/en/user-guide/access-history - write" xr:uid="{3E9D7875-A42C-44FA-9436-56D80B8E25C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94371667-7965-46CC-9B69-CB926C2BDEA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6321,7 +6410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6337,7 +6426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6353,7 +6442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6369,7 +6458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6805,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6821,7 +6910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6837,7 +6926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC0B74-3240-493B-B019-61A493383D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1785" windowWidth="23415" windowHeight="12990" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1785" windowWidth="23415" windowHeight="12990" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <sheet name="Exam 5" sheetId="14" r:id="rId15"/>
     <sheet name="Exam 6" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3493,6 +3492,10 @@
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -3726,6 +3729,10 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t> no futher revenue. Therefore, the default value 0 is used</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4645,6 +4652,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -4681,6 +4692,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -4724,6 +4739,10 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t> 20 + 20 = 40</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t/>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -5002,7 +5021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5018,7 +5037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5453,7 +5472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5469,7 +5488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
@@ -5485,14 +5504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="K44" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5920,7 +5939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="C10" workbookViewId="0">
@@ -5936,7 +5955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6370,7 +6389,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H36" r:id="rId1" location="write" display="https://docs.snowflake.com/en/user-guide/access-history - write" xr:uid="{3E9D7875-A42C-44FA-9436-56D80B8E25C4}"/>
+    <hyperlink ref="H36" r:id="rId1" location="write" display="https://docs.snowflake.com/en/user-guide/access-history - write"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6379,22 +6398,440 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94371667-7965-46CC-9B69-CB926C2BDEA9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2">
+        <f>ROUND($D$5*E1, 0)</f>
+        <v>11</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="F1">
+        <f>COUNTIF($A$1:$A$65, C1)</f>
+        <v>17</v>
+      </c>
+      <c r="G1" s="1">
+        <f>COUNTIF($A$1:$A$65, C1)/COUNTA($A$1:$A$65)</f>
+        <v>0.26153846153846155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D4" si="0">ROUND($D$5*E2, 0)</f>
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F4" si="1">COUNTIF($A$1:$A$65, C2)</f>
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G4" si="2">COUNTIF($A$1:$A$65, C2)/COUNTA($A$1:$A$65)</f>
+        <v>0.1076923076923077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D1:D4)</f>
+        <v>65</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(E1:E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F1:F4)</f>
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUM(G1:G4)</f>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6410,7 +6847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6426,7 +6863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6442,7 +6879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6458,7 +6895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6894,7 +7331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6910,7 +7347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6926,7 +7363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
+++ b/Brain/Snowflake/Certifications/DAA-C01/Udemy/phân loại câu hỏi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\OneDrive\Máy tính\Study\Brain\Snowflake\Certifications\DAA-C01\Udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92055E17-354C-444A-AB5A-0AD6574AE73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1785" windowWidth="23415" windowHeight="12990" firstSheet="3" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="3" r:id="rId1"/>
@@ -23,13 +24,13 @@
     <sheet name="Exam 2" sheetId="8" r:id="rId9"/>
     <sheet name="Exam 3" sheetId="10" r:id="rId10"/>
     <sheet name="11" sheetId="12" r:id="rId11"/>
-    <sheet name="21" sheetId="13" r:id="rId12"/>
+    <sheet name="19" sheetId="13" r:id="rId12"/>
     <sheet name="Exam 4" sheetId="11" r:id="rId13"/>
     <sheet name="5-11" sheetId="15" r:id="rId14"/>
     <sheet name="Exam 5" sheetId="14" r:id="rId15"/>
     <sheet name="Exam 6" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3492,10 +3493,6 @@
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -3729,10 +3726,6 @@
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t> no futher revenue. Therefore, the default value 0 is used</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -4075,7 +4068,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
-            <a:t> 2: 10 + 10 + 20 = 40</a:t>
+            <a:t> 3: 10 + 10 + 20 = 40</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
         </a:p>
@@ -4652,10 +4645,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -4692,10 +4681,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
           </a:br>
@@ -4739,10 +4724,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t> 20 + 20 = 40</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -5021,7 +5002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -5037,7 +5018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5472,7 +5453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5488,11 +5469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="S120" sqref="S120"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5504,7 +5485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5939,7 +5920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="C10" workbookViewId="0">
@@ -5955,7 +5936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6389,7 +6370,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H36" r:id="rId1" location="write" display="https://docs.snowflake.com/en/user-guide/access-history - write"/>
+    <hyperlink ref="H36" r:id="rId1" location="write" display="https://docs.snowflake.com/en/user-guide/access-history - write" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6398,10 +6379,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -6831,7 +6812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6847,7 +6828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -6863,7 +6844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6879,7 +6860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6895,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7331,7 +7312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -7347,7 +7328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7363,7 +7344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
